--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_152.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_152.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d595476-Reviews-Courtyard_Los_Angeles_LAX_Century_Boulevard-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>952</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Los-Angeles-Airport-Marriott.h12386.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_152.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_152.xlsx
@@ -10428,7 +10428,7 @@
     <t>This hotel was clean and convenient and satisfied all our requirements. The staff were courteous with one gentleman providing good service. However, another lady on the front desk was quite abrupt and could not even tell us how to get to Hollywood via public transport. The rooms were nice and in excellent condition. Free wi-fi in the rooms was great. Breakfast was ok, for a fee.A blue shuttle bus from the airport was very convenient and quite regular. The hotel is just a minute's walk from the tourist trolley bus which passes Manhattan Beach and Manhattan Village shopping area, providing easy access to both sights and shops. Note that the trolley bus runs with limited hours during non-summer months.More</t>
   </si>
   <si>
-    <t>Vattu</t>
+    <t>Johanna V</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d595476-r28589413-Courtyard_Los_Angeles_LAX_Century_Boulevard-Los_Angeles_California.html</t>
@@ -11543,7 +11543,7 @@
         <v>22696</v>
       </c>
       <c r="B2" t="n">
-        <v>132479</v>
+        <v>163275</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -11614,7 +11614,7 @@
         <v>22696</v>
       </c>
       <c r="B3" t="n">
-        <v>132480</v>
+        <v>163276</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -11685,7 +11685,7 @@
         <v>22696</v>
       </c>
       <c r="B4" t="n">
-        <v>132481</v>
+        <v>163277</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -11821,7 +11821,7 @@
         <v>22696</v>
       </c>
       <c r="B6" t="n">
-        <v>132482</v>
+        <v>163278</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -11890,7 +11890,7 @@
         <v>22696</v>
       </c>
       <c r="B7" t="n">
-        <v>132483</v>
+        <v>163279</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -12024,7 +12024,7 @@
         <v>22696</v>
       </c>
       <c r="B9" t="n">
-        <v>132484</v>
+        <v>132572</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
@@ -12095,7 +12095,7 @@
         <v>22696</v>
       </c>
       <c r="B10" t="n">
-        <v>132485</v>
+        <v>163280</v>
       </c>
       <c r="C10" t="s">
         <v>120</v>
@@ -12225,7 +12225,7 @@
         <v>22696</v>
       </c>
       <c r="B12" t="n">
-        <v>132486</v>
+        <v>163281</v>
       </c>
       <c r="C12" t="s">
         <v>138</v>
@@ -12290,7 +12290,7 @@
         <v>22696</v>
       </c>
       <c r="B13" t="n">
-        <v>132487</v>
+        <v>163282</v>
       </c>
       <c r="C13" t="s">
         <v>147</v>
@@ -12361,7 +12361,7 @@
         <v>22696</v>
       </c>
       <c r="B14" t="n">
-        <v>132488</v>
+        <v>132510</v>
       </c>
       <c r="C14" t="s">
         <v>155</v>
@@ -12426,7 +12426,7 @@
         <v>22696</v>
       </c>
       <c r="B15" t="n">
-        <v>132489</v>
+        <v>163283</v>
       </c>
       <c r="C15" t="s">
         <v>164</v>
@@ -12491,7 +12491,7 @@
         <v>22696</v>
       </c>
       <c r="B16" t="n">
-        <v>132490</v>
+        <v>163284</v>
       </c>
       <c r="C16" t="s">
         <v>174</v>
@@ -12552,7 +12552,7 @@
         <v>22696</v>
       </c>
       <c r="B17" t="n">
-        <v>132491</v>
+        <v>163285</v>
       </c>
       <c r="C17" t="s">
         <v>183</v>
@@ -12623,7 +12623,7 @@
         <v>22696</v>
       </c>
       <c r="B18" t="n">
-        <v>132492</v>
+        <v>163286</v>
       </c>
       <c r="C18" t="s">
         <v>190</v>
@@ -12814,7 +12814,7 @@
         <v>22696</v>
       </c>
       <c r="B21" t="n">
-        <v>132493</v>
+        <v>163287</v>
       </c>
       <c r="C21" t="s">
         <v>213</v>
@@ -12883,7 +12883,7 @@
         <v>22696</v>
       </c>
       <c r="B22" t="n">
-        <v>132494</v>
+        <v>163288</v>
       </c>
       <c r="C22" t="s">
         <v>221</v>
@@ -12948,7 +12948,7 @@
         <v>22696</v>
       </c>
       <c r="B23" t="n">
-        <v>132495</v>
+        <v>163289</v>
       </c>
       <c r="C23" t="s">
         <v>228</v>
@@ -13019,7 +13019,7 @@
         <v>22696</v>
       </c>
       <c r="B24" t="n">
-        <v>132496</v>
+        <v>163290</v>
       </c>
       <c r="C24" t="s">
         <v>238</v>
@@ -13212,7 +13212,7 @@
         <v>22696</v>
       </c>
       <c r="B27" t="n">
-        <v>132497</v>
+        <v>163291</v>
       </c>
       <c r="C27" t="s">
         <v>261</v>
@@ -13403,7 +13403,7 @@
         <v>22696</v>
       </c>
       <c r="B30" t="n">
-        <v>132498</v>
+        <v>163292</v>
       </c>
       <c r="C30" t="s">
         <v>282</v>
@@ -13468,7 +13468,7 @@
         <v>22696</v>
       </c>
       <c r="B31" t="n">
-        <v>132499</v>
+        <v>163293</v>
       </c>
       <c r="C31" t="s">
         <v>290</v>
@@ -13661,7 +13661,7 @@
         <v>22696</v>
       </c>
       <c r="B34" t="n">
-        <v>132500</v>
+        <v>163294</v>
       </c>
       <c r="C34" t="s">
         <v>311</v>
@@ -13728,7 +13728,7 @@
         <v>22696</v>
       </c>
       <c r="B35" t="n">
-        <v>132501</v>
+        <v>163295</v>
       </c>
       <c r="C35" t="s">
         <v>318</v>
@@ -13795,7 +13795,7 @@
         <v>22696</v>
       </c>
       <c r="B36" t="n">
-        <v>132502</v>
+        <v>163296</v>
       </c>
       <c r="C36" t="s">
         <v>325</v>
@@ -13982,7 +13982,7 @@
         <v>22696</v>
       </c>
       <c r="B39" t="n">
-        <v>132503</v>
+        <v>163297</v>
       </c>
       <c r="C39" t="s">
         <v>345</v>
@@ -14179,7 +14179,7 @@
         <v>22696</v>
       </c>
       <c r="B42" t="n">
-        <v>132504</v>
+        <v>163298</v>
       </c>
       <c r="C42" t="s">
         <v>367</v>
@@ -14246,7 +14246,7 @@
         <v>22696</v>
       </c>
       <c r="B43" t="n">
-        <v>132505</v>
+        <v>163299</v>
       </c>
       <c r="C43" t="s">
         <v>375</v>
@@ -14311,7 +14311,7 @@
         <v>22696</v>
       </c>
       <c r="B44" t="n">
-        <v>132506</v>
+        <v>163300</v>
       </c>
       <c r="C44" t="s">
         <v>381</v>
@@ -14443,7 +14443,7 @@
         <v>22696</v>
       </c>
       <c r="B46" t="n">
-        <v>132507</v>
+        <v>163301</v>
       </c>
       <c r="C46" t="s">
         <v>397</v>
@@ -14508,7 +14508,7 @@
         <v>22696</v>
       </c>
       <c r="B47" t="n">
-        <v>132508</v>
+        <v>163302</v>
       </c>
       <c r="C47" t="s">
         <v>404</v>
@@ -14575,7 +14575,7 @@
         <v>22696</v>
       </c>
       <c r="B48" t="n">
-        <v>132509</v>
+        <v>163303</v>
       </c>
       <c r="C48" t="s">
         <v>411</v>
@@ -14642,7 +14642,7 @@
         <v>22696</v>
       </c>
       <c r="B49" t="n">
-        <v>132510</v>
+        <v>163304</v>
       </c>
       <c r="C49" t="s">
         <v>417</v>
@@ -14843,7 +14843,7 @@
         <v>22696</v>
       </c>
       <c r="B52" t="n">
-        <v>132511</v>
+        <v>163305</v>
       </c>
       <c r="C52" t="s">
         <v>439</v>
@@ -14904,7 +14904,7 @@
         <v>22696</v>
       </c>
       <c r="B53" t="n">
-        <v>132512</v>
+        <v>163306</v>
       </c>
       <c r="C53" t="s">
         <v>445</v>
@@ -14965,7 +14965,7 @@
         <v>22696</v>
       </c>
       <c r="B54" t="n">
-        <v>132513</v>
+        <v>163307</v>
       </c>
       <c r="C54" t="s">
         <v>452</v>
@@ -15030,7 +15030,7 @@
         <v>22696</v>
       </c>
       <c r="B55" t="n">
-        <v>132514</v>
+        <v>163308</v>
       </c>
       <c r="C55" t="s">
         <v>458</v>
@@ -15097,7 +15097,7 @@
         <v>22696</v>
       </c>
       <c r="B56" t="n">
-        <v>132515</v>
+        <v>163309</v>
       </c>
       <c r="C56" t="s">
         <v>465</v>
@@ -15229,7 +15229,7 @@
         <v>22696</v>
       </c>
       <c r="B58" t="n">
-        <v>132516</v>
+        <v>163310</v>
       </c>
       <c r="C58" t="s">
         <v>482</v>
@@ -15296,7 +15296,7 @@
         <v>22696</v>
       </c>
       <c r="B59" t="n">
-        <v>132517</v>
+        <v>163311</v>
       </c>
       <c r="C59" t="s">
         <v>488</v>
@@ -15357,7 +15357,7 @@
         <v>22696</v>
       </c>
       <c r="B60" t="n">
-        <v>132518</v>
+        <v>163312</v>
       </c>
       <c r="C60" t="s">
         <v>494</v>
@@ -15491,7 +15491,7 @@
         <v>22696</v>
       </c>
       <c r="B62" t="n">
-        <v>132519</v>
+        <v>163313</v>
       </c>
       <c r="C62" t="s">
         <v>507</v>
@@ -15558,7 +15558,7 @@
         <v>22696</v>
       </c>
       <c r="B63" t="n">
-        <v>132520</v>
+        <v>163314</v>
       </c>
       <c r="C63" t="s">
         <v>514</v>
@@ -15755,7 +15755,7 @@
         <v>22696</v>
       </c>
       <c r="B66" t="n">
-        <v>132521</v>
+        <v>132524</v>
       </c>
       <c r="C66" t="s">
         <v>536</v>
@@ -15820,7 +15820,7 @@
         <v>22696</v>
       </c>
       <c r="B67" t="n">
-        <v>132522</v>
+        <v>163315</v>
       </c>
       <c r="C67" t="s">
         <v>542</v>
@@ -15958,7 +15958,7 @@
         <v>22696</v>
       </c>
       <c r="B69" t="n">
-        <v>132523</v>
+        <v>163316</v>
       </c>
       <c r="C69" t="s">
         <v>557</v>
@@ -16023,7 +16023,7 @@
         <v>22696</v>
       </c>
       <c r="B70" t="n">
-        <v>132524</v>
+        <v>163317</v>
       </c>
       <c r="C70" t="s">
         <v>566</v>
@@ -16084,7 +16084,7 @@
         <v>22696</v>
       </c>
       <c r="B71" t="n">
-        <v>132525</v>
+        <v>163318</v>
       </c>
       <c r="C71" t="s">
         <v>574</v>
@@ -16151,7 +16151,7 @@
         <v>22696</v>
       </c>
       <c r="B72" t="n">
-        <v>132526</v>
+        <v>163319</v>
       </c>
       <c r="C72" t="s">
         <v>580</v>
@@ -16279,7 +16279,7 @@
         <v>22696</v>
       </c>
       <c r="B74" t="n">
-        <v>132527</v>
+        <v>163320</v>
       </c>
       <c r="C74" t="s">
         <v>592</v>
@@ -16466,7 +16466,7 @@
         <v>22696</v>
       </c>
       <c r="B77" t="n">
-        <v>132528</v>
+        <v>163321</v>
       </c>
       <c r="C77" t="s">
         <v>610</v>
@@ -16533,7 +16533,7 @@
         <v>22696</v>
       </c>
       <c r="B78" t="n">
-        <v>132529</v>
+        <v>163322</v>
       </c>
       <c r="C78" t="s">
         <v>617</v>
@@ -16671,7 +16671,7 @@
         <v>22696</v>
       </c>
       <c r="B80" t="n">
-        <v>132530</v>
+        <v>163323</v>
       </c>
       <c r="C80" t="s">
         <v>633</v>
@@ -16732,7 +16732,7 @@
         <v>22696</v>
       </c>
       <c r="B81" t="n">
-        <v>132531</v>
+        <v>163324</v>
       </c>
       <c r="C81" t="s">
         <v>639</v>
@@ -16988,7 +16988,7 @@
         <v>22696</v>
       </c>
       <c r="B85" t="n">
-        <v>132532</v>
+        <v>163325</v>
       </c>
       <c r="C85" t="s">
         <v>672</v>
@@ -17120,7 +17120,7 @@
         <v>22696</v>
       </c>
       <c r="B87" t="n">
-        <v>132533</v>
+        <v>163326</v>
       </c>
       <c r="C87" t="s">
         <v>685</v>
@@ -17246,7 +17246,7 @@
         <v>22696</v>
       </c>
       <c r="B89" t="n">
-        <v>132534</v>
+        <v>163327</v>
       </c>
       <c r="C89" t="s">
         <v>698</v>
@@ -17317,7 +17317,7 @@
         <v>22696</v>
       </c>
       <c r="B90" t="n">
-        <v>132487</v>
+        <v>132510</v>
       </c>
       <c r="C90" t="s">
         <v>155</v>
@@ -17577,7 +17577,7 @@
         <v>22696</v>
       </c>
       <c r="B94" t="n">
-        <v>132535</v>
+        <v>163328</v>
       </c>
       <c r="C94" t="s">
         <v>734</v>
@@ -17642,7 +17642,7 @@
         <v>22696</v>
       </c>
       <c r="B95" t="n">
-        <v>132536</v>
+        <v>163329</v>
       </c>
       <c r="C95" t="s">
         <v>740</v>
@@ -17774,7 +17774,7 @@
         <v>22696</v>
       </c>
       <c r="B97" t="n">
-        <v>132537</v>
+        <v>163330</v>
       </c>
       <c r="C97" t="s">
         <v>755</v>
@@ -17841,7 +17841,7 @@
         <v>22696</v>
       </c>
       <c r="B98" t="n">
-        <v>132538</v>
+        <v>163331</v>
       </c>
       <c r="C98" t="s">
         <v>761</v>
@@ -17908,7 +17908,7 @@
         <v>22696</v>
       </c>
       <c r="B99" t="n">
-        <v>132539</v>
+        <v>163332</v>
       </c>
       <c r="C99" t="s">
         <v>768</v>
@@ -18030,7 +18030,7 @@
         <v>22696</v>
       </c>
       <c r="B101" t="n">
-        <v>132540</v>
+        <v>163333</v>
       </c>
       <c r="C101" t="s">
         <v>781</v>
@@ -18097,7 +18097,7 @@
         <v>22696</v>
       </c>
       <c r="B102" t="n">
-        <v>132541</v>
+        <v>163334</v>
       </c>
       <c r="C102" t="s">
         <v>788</v>
@@ -18162,7 +18162,7 @@
         <v>22696</v>
       </c>
       <c r="B103" t="n">
-        <v>132542</v>
+        <v>163335</v>
       </c>
       <c r="C103" t="s">
         <v>794</v>
@@ -18284,7 +18284,7 @@
         <v>22696</v>
       </c>
       <c r="B105" t="n">
-        <v>132543</v>
+        <v>163336</v>
       </c>
       <c r="C105" t="s">
         <v>806</v>
@@ -18487,7 +18487,7 @@
         <v>22696</v>
       </c>
       <c r="B108" t="n">
-        <v>132544</v>
+        <v>163337</v>
       </c>
       <c r="C108" t="s">
         <v>829</v>
@@ -18556,7 +18556,7 @@
         <v>22696</v>
       </c>
       <c r="B109" t="n">
-        <v>132545</v>
+        <v>163338</v>
       </c>
       <c r="C109" t="s">
         <v>838</v>
@@ -18625,7 +18625,7 @@
         <v>22696</v>
       </c>
       <c r="B110" t="n">
-        <v>132546</v>
+        <v>147182</v>
       </c>
       <c r="C110" t="s">
         <v>847</v>
@@ -18690,7 +18690,7 @@
         <v>22696</v>
       </c>
       <c r="B111" t="n">
-        <v>132547</v>
+        <v>163339</v>
       </c>
       <c r="C111" t="s">
         <v>857</v>
@@ -18820,7 +18820,7 @@
         <v>22696</v>
       </c>
       <c r="B113" t="n">
-        <v>132548</v>
+        <v>163340</v>
       </c>
       <c r="C113" t="s">
         <v>871</v>
@@ -18881,7 +18881,7 @@
         <v>22696</v>
       </c>
       <c r="B114" t="n">
-        <v>132549</v>
+        <v>163341</v>
       </c>
       <c r="C114" t="s">
         <v>877</v>
@@ -18948,7 +18948,7 @@
         <v>22696</v>
       </c>
       <c r="B115" t="n">
-        <v>132550</v>
+        <v>163342</v>
       </c>
       <c r="C115" t="s">
         <v>883</v>
@@ -19009,7 +19009,7 @@
         <v>22696</v>
       </c>
       <c r="B116" t="n">
-        <v>132551</v>
+        <v>163343</v>
       </c>
       <c r="C116" t="s">
         <v>889</v>
@@ -19070,7 +19070,7 @@
         <v>22696</v>
       </c>
       <c r="B117" t="n">
-        <v>132552</v>
+        <v>163344</v>
       </c>
       <c r="C117" t="s">
         <v>895</v>
@@ -19397,7 +19397,7 @@
         <v>22696</v>
       </c>
       <c r="B122" t="n">
-        <v>132520</v>
+        <v>132524</v>
       </c>
       <c r="C122" t="s">
         <v>536</v>
@@ -19464,7 +19464,7 @@
         <v>22696</v>
       </c>
       <c r="B123" t="n">
-        <v>132553</v>
+        <v>163345</v>
       </c>
       <c r="C123" t="s">
         <v>935</v>
@@ -19592,7 +19592,7 @@
         <v>22696</v>
       </c>
       <c r="B125" t="n">
-        <v>132554</v>
+        <v>163346</v>
       </c>
       <c r="C125" t="s">
         <v>950</v>
@@ -19724,7 +19724,7 @@
         <v>22696</v>
       </c>
       <c r="B127" t="n">
-        <v>132555</v>
+        <v>163347</v>
       </c>
       <c r="C127" t="s">
         <v>964</v>
@@ -19791,7 +19791,7 @@
         <v>22696</v>
       </c>
       <c r="B128" t="n">
-        <v>132556</v>
+        <v>163348</v>
       </c>
       <c r="C128" t="s">
         <v>970</v>
@@ -19848,7 +19848,7 @@
         <v>22696</v>
       </c>
       <c r="B129" t="n">
-        <v>132557</v>
+        <v>163349</v>
       </c>
       <c r="C129" t="s">
         <v>976</v>
@@ -19909,7 +19909,7 @@
         <v>22696</v>
       </c>
       <c r="B130" t="n">
-        <v>132558</v>
+        <v>163350</v>
       </c>
       <c r="C130" t="s">
         <v>981</v>
@@ -19974,7 +19974,7 @@
         <v>22696</v>
       </c>
       <c r="B131" t="n">
-        <v>132559</v>
+        <v>163351</v>
       </c>
       <c r="C131" t="s">
         <v>987</v>
@@ -20041,7 +20041,7 @@
         <v>22696</v>
       </c>
       <c r="B132" t="n">
-        <v>132560</v>
+        <v>163352</v>
       </c>
       <c r="C132" t="s">
         <v>994</v>
@@ -20163,7 +20163,7 @@
         <v>22696</v>
       </c>
       <c r="B134" t="n">
-        <v>132561</v>
+        <v>163353</v>
       </c>
       <c r="C134" t="s">
         <v>1008</v>
@@ -20291,7 +20291,7 @@
         <v>22696</v>
       </c>
       <c r="B136" t="n">
-        <v>132562</v>
+        <v>163354</v>
       </c>
       <c r="C136" t="s">
         <v>1022</v>
@@ -20362,7 +20362,7 @@
         <v>22696</v>
       </c>
       <c r="B137" t="n">
-        <v>132563</v>
+        <v>163355</v>
       </c>
       <c r="C137" t="s">
         <v>1031</v>
@@ -20488,7 +20488,7 @@
         <v>22696</v>
       </c>
       <c r="B139" t="n">
-        <v>132564</v>
+        <v>163356</v>
       </c>
       <c r="C139" t="s">
         <v>1046</v>
@@ -20553,7 +20553,7 @@
         <v>22696</v>
       </c>
       <c r="B140" t="n">
-        <v>132565</v>
+        <v>163357</v>
       </c>
       <c r="C140" t="s">
         <v>1053</v>
@@ -20685,7 +20685,7 @@
         <v>22696</v>
       </c>
       <c r="B142" t="n">
-        <v>132566</v>
+        <v>163358</v>
       </c>
       <c r="C142" t="s">
         <v>1066</v>
@@ -20750,7 +20750,7 @@
         <v>22696</v>
       </c>
       <c r="B143" t="n">
-        <v>132567</v>
+        <v>163359</v>
       </c>
       <c r="C143" t="s">
         <v>1073</v>
@@ -20947,7 +20947,7 @@
         <v>22696</v>
       </c>
       <c r="B146" t="n">
-        <v>132568</v>
+        <v>163360</v>
       </c>
       <c r="C146" t="s">
         <v>1094</v>
@@ -21012,7 +21012,7 @@
         <v>22696</v>
       </c>
       <c r="B147" t="n">
-        <v>132569</v>
+        <v>163361</v>
       </c>
       <c r="C147" t="s">
         <v>1100</v>
@@ -21081,7 +21081,7 @@
         <v>22696</v>
       </c>
       <c r="B148" t="n">
-        <v>132570</v>
+        <v>163362</v>
       </c>
       <c r="C148" t="s">
         <v>1109</v>
@@ -21148,7 +21148,7 @@
         <v>22696</v>
       </c>
       <c r="B149" t="n">
-        <v>132571</v>
+        <v>163363</v>
       </c>
       <c r="C149" t="s">
         <v>1114</v>
@@ -21215,7 +21215,7 @@
         <v>22696</v>
       </c>
       <c r="B150" t="n">
-        <v>132572</v>
+        <v>163364</v>
       </c>
       <c r="C150" t="s">
         <v>1122</v>
@@ -21276,7 +21276,7 @@
         <v>22696</v>
       </c>
       <c r="B151" t="n">
-        <v>132573</v>
+        <v>163365</v>
       </c>
       <c r="C151" t="s">
         <v>1129</v>
@@ -21337,7 +21337,7 @@
         <v>22696</v>
       </c>
       <c r="B152" t="n">
-        <v>132574</v>
+        <v>163366</v>
       </c>
       <c r="C152" t="s">
         <v>1135</v>
@@ -21520,7 +21520,7 @@
         <v>22696</v>
       </c>
       <c r="B155" t="n">
-        <v>132575</v>
+        <v>163367</v>
       </c>
       <c r="C155" t="s">
         <v>1154</v>
@@ -21658,7 +21658,7 @@
         <v>22696</v>
       </c>
       <c r="B157" t="n">
-        <v>132576</v>
+        <v>163368</v>
       </c>
       <c r="C157" t="s">
         <v>1169</v>
@@ -21786,7 +21786,7 @@
         <v>22696</v>
       </c>
       <c r="B159" t="n">
-        <v>132577</v>
+        <v>163369</v>
       </c>
       <c r="C159" t="s">
         <v>1182</v>
@@ -21847,7 +21847,7 @@
         <v>22696</v>
       </c>
       <c r="B160" t="n">
-        <v>132578</v>
+        <v>163370</v>
       </c>
       <c r="C160" t="s">
         <v>1189</v>
@@ -21918,7 +21918,7 @@
         <v>22696</v>
       </c>
       <c r="B161" t="n">
-        <v>132579</v>
+        <v>163371</v>
       </c>
       <c r="C161" t="s">
         <v>1198</v>
@@ -22115,7 +22115,7 @@
         <v>22696</v>
       </c>
       <c r="B164" t="n">
-        <v>132580</v>
+        <v>163372</v>
       </c>
       <c r="C164" t="s">
         <v>1218</v>
@@ -22180,7 +22180,7 @@
         <v>22696</v>
       </c>
       <c r="B165" t="n">
-        <v>132581</v>
+        <v>163373</v>
       </c>
       <c r="C165" t="s">
         <v>1224</v>
@@ -22245,7 +22245,7 @@
         <v>22696</v>
       </c>
       <c r="B166" t="n">
-        <v>132582</v>
+        <v>163374</v>
       </c>
       <c r="C166" t="s">
         <v>1234</v>
@@ -22440,7 +22440,7 @@
         <v>22696</v>
       </c>
       <c r="B169" t="n">
-        <v>132583</v>
+        <v>163375</v>
       </c>
       <c r="C169" t="s">
         <v>1255</v>
@@ -22511,7 +22511,7 @@
         <v>22696</v>
       </c>
       <c r="B170" t="n">
-        <v>132584</v>
+        <v>163376</v>
       </c>
       <c r="C170" t="s">
         <v>1262</v>
@@ -22718,7 +22718,7 @@
         <v>22696</v>
       </c>
       <c r="B173" t="n">
-        <v>132585</v>
+        <v>163377</v>
       </c>
       <c r="C173" t="s">
         <v>1286</v>
@@ -22787,7 +22787,7 @@
         <v>22696</v>
       </c>
       <c r="B174" t="n">
-        <v>132586</v>
+        <v>163378</v>
       </c>
       <c r="C174" t="s">
         <v>1295</v>
@@ -22852,7 +22852,7 @@
         <v>22696</v>
       </c>
       <c r="B175" t="n">
-        <v>132587</v>
+        <v>163379</v>
       </c>
       <c r="C175" t="s">
         <v>1302</v>
@@ -22919,7 +22919,7 @@
         <v>22696</v>
       </c>
       <c r="B176" t="n">
-        <v>132588</v>
+        <v>163380</v>
       </c>
       <c r="C176" t="s">
         <v>1307</v>
@@ -22980,7 +22980,7 @@
         <v>22696</v>
       </c>
       <c r="B177" t="n">
-        <v>132589</v>
+        <v>163381</v>
       </c>
       <c r="C177" t="s">
         <v>1313</v>
@@ -23041,7 +23041,7 @@
         <v>22696</v>
       </c>
       <c r="B178" t="n">
-        <v>132590</v>
+        <v>163382</v>
       </c>
       <c r="C178" t="s">
         <v>1319</v>
@@ -23106,7 +23106,7 @@
         <v>22696</v>
       </c>
       <c r="B179" t="n">
-        <v>132591</v>
+        <v>163383</v>
       </c>
       <c r="C179" t="s">
         <v>1326</v>
@@ -23171,7 +23171,7 @@
         <v>22696</v>
       </c>
       <c r="B180" t="n">
-        <v>132592</v>
+        <v>163384</v>
       </c>
       <c r="C180" t="s">
         <v>1332</v>
@@ -23240,7 +23240,7 @@
         <v>22696</v>
       </c>
       <c r="B181" t="n">
-        <v>132593</v>
+        <v>163385</v>
       </c>
       <c r="C181" t="s">
         <v>1342</v>
@@ -23431,7 +23431,7 @@
         <v>22696</v>
       </c>
       <c r="B184" t="n">
-        <v>132594</v>
+        <v>163386</v>
       </c>
       <c r="C184" t="s">
         <v>1362</v>
@@ -23620,7 +23620,7 @@
         <v>22696</v>
       </c>
       <c r="B187" t="n">
-        <v>132595</v>
+        <v>163387</v>
       </c>
       <c r="C187" t="s">
         <v>1380</v>
@@ -23681,7 +23681,7 @@
         <v>22696</v>
       </c>
       <c r="B188" t="n">
-        <v>132596</v>
+        <v>163388</v>
       </c>
       <c r="C188" t="s">
         <v>1387</v>
@@ -23746,7 +23746,7 @@
         <v>22696</v>
       </c>
       <c r="B189" t="n">
-        <v>132597</v>
+        <v>163389</v>
       </c>
       <c r="C189" t="s">
         <v>1394</v>
@@ -23813,7 +23813,7 @@
         <v>22696</v>
       </c>
       <c r="B190" t="n">
-        <v>132598</v>
+        <v>163390</v>
       </c>
       <c r="C190" t="s">
         <v>1401</v>
@@ -23945,7 +23945,7 @@
         <v>22696</v>
       </c>
       <c r="B192" t="n">
-        <v>132599</v>
+        <v>163391</v>
       </c>
       <c r="C192" t="s">
         <v>1413</v>
@@ -24012,7 +24012,7 @@
         <v>22696</v>
       </c>
       <c r="B193" t="n">
-        <v>132600</v>
+        <v>163392</v>
       </c>
       <c r="C193" t="s">
         <v>1420</v>
@@ -24069,7 +24069,7 @@
         <v>22696</v>
       </c>
       <c r="B194" t="n">
-        <v>132601</v>
+        <v>163393</v>
       </c>
       <c r="C194" t="s">
         <v>1426</v>
@@ -24130,7 +24130,7 @@
         <v>22696</v>
       </c>
       <c r="B195" t="n">
-        <v>132602</v>
+        <v>163394</v>
       </c>
       <c r="C195" t="s">
         <v>1432</v>
@@ -24195,7 +24195,7 @@
         <v>22696</v>
       </c>
       <c r="B196" t="n">
-        <v>132603</v>
+        <v>163395</v>
       </c>
       <c r="C196" t="s">
         <v>1438</v>
@@ -24325,7 +24325,7 @@
         <v>22696</v>
       </c>
       <c r="B198" t="n">
-        <v>132604</v>
+        <v>163396</v>
       </c>
       <c r="C198" t="s">
         <v>1453</v>
@@ -24453,7 +24453,7 @@
         <v>22696</v>
       </c>
       <c r="B200" t="n">
-        <v>132605</v>
+        <v>163397</v>
       </c>
       <c r="C200" t="s">
         <v>1465</v>
@@ -24518,7 +24518,7 @@
         <v>22696</v>
       </c>
       <c r="B201" t="n">
-        <v>132606</v>
+        <v>163398</v>
       </c>
       <c r="C201" t="s">
         <v>1473</v>
@@ -24585,7 +24585,7 @@
         <v>22696</v>
       </c>
       <c r="B202" t="n">
-        <v>132607</v>
+        <v>163399</v>
       </c>
       <c r="C202" t="s">
         <v>1478</v>
@@ -24713,7 +24713,7 @@
         <v>22696</v>
       </c>
       <c r="B204" t="n">
-        <v>132608</v>
+        <v>163400</v>
       </c>
       <c r="C204" t="s">
         <v>1491</v>
@@ -24843,7 +24843,7 @@
         <v>22696</v>
       </c>
       <c r="B206" t="n">
-        <v>132609</v>
+        <v>163401</v>
       </c>
       <c r="C206" t="s">
         <v>1502</v>
@@ -24979,7 +24979,7 @@
         <v>22696</v>
       </c>
       <c r="B208" t="n">
-        <v>132610</v>
+        <v>163402</v>
       </c>
       <c r="C208" t="s">
         <v>1517</v>
@@ -25044,7 +25044,7 @@
         <v>22696</v>
       </c>
       <c r="B209" t="n">
-        <v>132611</v>
+        <v>163403</v>
       </c>
       <c r="C209" t="s">
         <v>1524</v>
@@ -25115,7 +25115,7 @@
         <v>22696</v>
       </c>
       <c r="B210" t="n">
-        <v>132612</v>
+        <v>163404</v>
       </c>
       <c r="C210" t="s">
         <v>1531</v>
@@ -25182,7 +25182,7 @@
         <v>22696</v>
       </c>
       <c r="B211" t="n">
-        <v>132613</v>
+        <v>163405</v>
       </c>
       <c r="C211" t="s">
         <v>1537</v>
@@ -25253,7 +25253,7 @@
         <v>22696</v>
       </c>
       <c r="B212" t="n">
-        <v>132614</v>
+        <v>163406</v>
       </c>
       <c r="C212" t="s">
         <v>1545</v>
@@ -25318,7 +25318,7 @@
         <v>22696</v>
       </c>
       <c r="B213" t="n">
-        <v>132615</v>
+        <v>163407</v>
       </c>
       <c r="C213" t="s">
         <v>1551</v>
@@ -25450,7 +25450,7 @@
         <v>22696</v>
       </c>
       <c r="B215" t="n">
-        <v>132616</v>
+        <v>163408</v>
       </c>
       <c r="C215" t="s">
         <v>1564</v>
@@ -25517,7 +25517,7 @@
         <v>22696</v>
       </c>
       <c r="B216" t="n">
-        <v>132617</v>
+        <v>163409</v>
       </c>
       <c r="C216" t="s">
         <v>1570</v>
@@ -25706,7 +25706,7 @@
         <v>22696</v>
       </c>
       <c r="B219" t="n">
-        <v>132618</v>
+        <v>163410</v>
       </c>
       <c r="C219" t="s">
         <v>1591</v>
@@ -25834,7 +25834,7 @@
         <v>22696</v>
       </c>
       <c r="B221" t="n">
-        <v>132619</v>
+        <v>163411</v>
       </c>
       <c r="C221" t="s">
         <v>1604</v>
@@ -25895,7 +25895,7 @@
         <v>22696</v>
       </c>
       <c r="B222" t="n">
-        <v>132620</v>
+        <v>163412</v>
       </c>
       <c r="C222" t="s">
         <v>1612</v>
@@ -25960,7 +25960,7 @@
         <v>22696</v>
       </c>
       <c r="B223" t="n">
-        <v>132621</v>
+        <v>163413</v>
       </c>
       <c r="C223" t="s">
         <v>1619</v>
@@ -26027,7 +26027,7 @@
         <v>22696</v>
       </c>
       <c r="B224" t="n">
-        <v>132622</v>
+        <v>163414</v>
       </c>
       <c r="C224" t="s">
         <v>1626</v>
@@ -26291,7 +26291,7 @@
         <v>22696</v>
       </c>
       <c r="B228" t="n">
-        <v>132623</v>
+        <v>163415</v>
       </c>
       <c r="C228" t="s">
         <v>1656</v>
@@ -26419,7 +26419,7 @@
         <v>22696</v>
       </c>
       <c r="B230" t="n">
-        <v>132624</v>
+        <v>163416</v>
       </c>
       <c r="C230" t="s">
         <v>1668</v>
@@ -26547,7 +26547,7 @@
         <v>22696</v>
       </c>
       <c r="B232" t="n">
-        <v>132625</v>
+        <v>163417</v>
       </c>
       <c r="C232" t="s">
         <v>1679</v>
@@ -26612,7 +26612,7 @@
         <v>22696</v>
       </c>
       <c r="B233" t="n">
-        <v>132626</v>
+        <v>163418</v>
       </c>
       <c r="C233" t="s">
         <v>1686</v>
@@ -26673,7 +26673,7 @@
         <v>22696</v>
       </c>
       <c r="B234" t="n">
-        <v>132627</v>
+        <v>163419</v>
       </c>
       <c r="C234" t="s">
         <v>1692</v>
@@ -26803,7 +26803,7 @@
         <v>22696</v>
       </c>
       <c r="B236" t="n">
-        <v>132628</v>
+        <v>163420</v>
       </c>
       <c r="C236" t="s">
         <v>1704</v>
@@ -26872,7 +26872,7 @@
         <v>22696</v>
       </c>
       <c r="B237" t="n">
-        <v>132629</v>
+        <v>163421</v>
       </c>
       <c r="C237" t="s">
         <v>1713</v>
@@ -27010,7 +27010,7 @@
         <v>22696</v>
       </c>
       <c r="B239" t="n">
-        <v>132630</v>
+        <v>163422</v>
       </c>
       <c r="C239" t="s">
         <v>1726</v>
@@ -27081,7 +27081,7 @@
         <v>22696</v>
       </c>
       <c r="B240" t="n">
-        <v>132631</v>
+        <v>163423</v>
       </c>
       <c r="C240" t="s">
         <v>1734</v>
@@ -27142,7 +27142,7 @@
         <v>22696</v>
       </c>
       <c r="B241" t="n">
-        <v>132632</v>
+        <v>163424</v>
       </c>
       <c r="C241" t="s">
         <v>1741</v>
@@ -27284,7 +27284,7 @@
         <v>22696</v>
       </c>
       <c r="B243" t="n">
-        <v>132633</v>
+        <v>163425</v>
       </c>
       <c r="C243" t="s">
         <v>1759</v>
@@ -27349,7 +27349,7 @@
         <v>22696</v>
       </c>
       <c r="B244" t="n">
-        <v>132634</v>
+        <v>163426</v>
       </c>
       <c r="C244" t="s">
         <v>1765</v>
@@ -27420,7 +27420,7 @@
         <v>22696</v>
       </c>
       <c r="B245" t="n">
-        <v>132635</v>
+        <v>163427</v>
       </c>
       <c r="C245" t="s">
         <v>1774</v>
@@ -27556,7 +27556,7 @@
         <v>22696</v>
       </c>
       <c r="B247" t="n">
-        <v>132636</v>
+        <v>163428</v>
       </c>
       <c r="C247" t="s">
         <v>1792</v>
@@ -27625,7 +27625,7 @@
         <v>22696</v>
       </c>
       <c r="B248" t="n">
-        <v>132637</v>
+        <v>163429</v>
       </c>
       <c r="C248" t="s">
         <v>1799</v>
@@ -27690,7 +27690,7 @@
         <v>22696</v>
       </c>
       <c r="B249" t="n">
-        <v>132638</v>
+        <v>163430</v>
       </c>
       <c r="C249" t="s">
         <v>1806</v>
@@ -27826,7 +27826,7 @@
         <v>22696</v>
       </c>
       <c r="B251" t="n">
-        <v>132639</v>
+        <v>163431</v>
       </c>
       <c r="C251" t="s">
         <v>1820</v>
@@ -27895,7 +27895,7 @@
         <v>22696</v>
       </c>
       <c r="B252" t="n">
-        <v>132640</v>
+        <v>163432</v>
       </c>
       <c r="C252" t="s">
         <v>1828</v>
@@ -27960,7 +27960,7 @@
         <v>22696</v>
       </c>
       <c r="B253" t="n">
-        <v>132641</v>
+        <v>163433</v>
       </c>
       <c r="C253" t="s">
         <v>1835</v>
@@ -28025,7 +28025,7 @@
         <v>22696</v>
       </c>
       <c r="B254" t="n">
-        <v>132642</v>
+        <v>163434</v>
       </c>
       <c r="C254" t="s">
         <v>1841</v>
@@ -28082,7 +28082,7 @@
         <v>22696</v>
       </c>
       <c r="B255" t="n">
-        <v>132643</v>
+        <v>163435</v>
       </c>
       <c r="C255" t="s">
         <v>1847</v>
@@ -28147,7 +28147,7 @@
         <v>22696</v>
       </c>
       <c r="B256" t="n">
-        <v>132644</v>
+        <v>163436</v>
       </c>
       <c r="C256" t="s">
         <v>1856</v>
@@ -28281,7 +28281,7 @@
         <v>22696</v>
       </c>
       <c r="B258" t="n">
-        <v>132645</v>
+        <v>163437</v>
       </c>
       <c r="C258" t="s">
         <v>1868</v>
@@ -28350,7 +28350,7 @@
         <v>22696</v>
       </c>
       <c r="B259" t="n">
-        <v>132646</v>
+        <v>163438</v>
       </c>
       <c r="C259" t="s">
         <v>1876</v>
@@ -28411,7 +28411,7 @@
         <v>22696</v>
       </c>
       <c r="B260" t="n">
-        <v>132647</v>
+        <v>163439</v>
       </c>
       <c r="C260" t="s">
         <v>1883</v>
@@ -28478,7 +28478,7 @@
         <v>22696</v>
       </c>
       <c r="B261" t="n">
-        <v>132648</v>
+        <v>163440</v>
       </c>
       <c r="C261" t="s">
         <v>1890</v>
@@ -28543,7 +28543,7 @@
         <v>22696</v>
       </c>
       <c r="B262" t="n">
-        <v>132649</v>
+        <v>163441</v>
       </c>
       <c r="C262" t="s">
         <v>1896</v>
@@ -28610,7 +28610,7 @@
         <v>22696</v>
       </c>
       <c r="B263" t="n">
-        <v>132650</v>
+        <v>163442</v>
       </c>
       <c r="C263" t="s">
         <v>1902</v>
@@ -28677,7 +28677,7 @@
         <v>22696</v>
       </c>
       <c r="B264" t="n">
-        <v>132651</v>
+        <v>163443</v>
       </c>
       <c r="C264" t="s">
         <v>1909</v>
@@ -28746,7 +28746,7 @@
         <v>22696</v>
       </c>
       <c r="B265" t="n">
-        <v>132652</v>
+        <v>163444</v>
       </c>
       <c r="C265" t="s">
         <v>1918</v>
@@ -28884,7 +28884,7 @@
         <v>22696</v>
       </c>
       <c r="B267" t="n">
-        <v>132653</v>
+        <v>163445</v>
       </c>
       <c r="C267" t="s">
         <v>1934</v>
@@ -28955,7 +28955,7 @@
         <v>22696</v>
       </c>
       <c r="B268" t="n">
-        <v>132654</v>
+        <v>163446</v>
       </c>
       <c r="C268" t="s">
         <v>1944</v>
@@ -29085,7 +29085,7 @@
         <v>22696</v>
       </c>
       <c r="B270" t="n">
-        <v>132655</v>
+        <v>163447</v>
       </c>
       <c r="C270" t="s">
         <v>1957</v>
@@ -29150,7 +29150,7 @@
         <v>22696</v>
       </c>
       <c r="B271" t="n">
-        <v>132656</v>
+        <v>163448</v>
       </c>
       <c r="C271" t="s">
         <v>1965</v>
@@ -29221,7 +29221,7 @@
         <v>22696</v>
       </c>
       <c r="B272" t="n">
-        <v>132657</v>
+        <v>163449</v>
       </c>
       <c r="C272" t="s">
         <v>1974</v>
@@ -29359,7 +29359,7 @@
         <v>22696</v>
       </c>
       <c r="B274" t="n">
-        <v>132658</v>
+        <v>163450</v>
       </c>
       <c r="C274" t="s">
         <v>1987</v>
@@ -29424,7 +29424,7 @@
         <v>22696</v>
       </c>
       <c r="B275" t="n">
-        <v>132659</v>
+        <v>163451</v>
       </c>
       <c r="C275" t="s">
         <v>1996</v>
@@ -29558,7 +29558,7 @@
         <v>22696</v>
       </c>
       <c r="B277" t="n">
-        <v>132483</v>
+        <v>132572</v>
       </c>
       <c r="C277" t="s">
         <v>111</v>
@@ -29698,7 +29698,7 @@
         <v>22696</v>
       </c>
       <c r="B279" t="n">
-        <v>132660</v>
+        <v>163452</v>
       </c>
       <c r="C279" t="s">
         <v>2025</v>
@@ -29763,7 +29763,7 @@
         <v>22696</v>
       </c>
       <c r="B280" t="n">
-        <v>132661</v>
+        <v>163453</v>
       </c>
       <c r="C280" t="s">
         <v>2032</v>
@@ -29828,7 +29828,7 @@
         <v>22696</v>
       </c>
       <c r="B281" t="n">
-        <v>132662</v>
+        <v>163454</v>
       </c>
       <c r="C281" t="s">
         <v>2038</v>
@@ -29889,7 +29889,7 @@
         <v>22696</v>
       </c>
       <c r="B282" t="n">
-        <v>132663</v>
+        <v>163455</v>
       </c>
       <c r="C282" t="s">
         <v>2043</v>
@@ -29958,7 +29958,7 @@
         <v>22696</v>
       </c>
       <c r="B283" t="n">
-        <v>132664</v>
+        <v>163456</v>
       </c>
       <c r="C283" t="s">
         <v>2050</v>
@@ -30025,7 +30025,7 @@
         <v>22696</v>
       </c>
       <c r="B284" t="n">
-        <v>132665</v>
+        <v>163457</v>
       </c>
       <c r="C284" t="s">
         <v>2056</v>
@@ -30224,7 +30224,7 @@
         <v>22696</v>
       </c>
       <c r="B287" t="n">
-        <v>132666</v>
+        <v>163458</v>
       </c>
       <c r="C287" t="s">
         <v>2077</v>
@@ -30295,7 +30295,7 @@
         <v>22696</v>
       </c>
       <c r="B288" t="n">
-        <v>132667</v>
+        <v>163459</v>
       </c>
       <c r="C288" t="s">
         <v>2085</v>
@@ -30366,7 +30366,7 @@
         <v>22696</v>
       </c>
       <c r="B289" t="n">
-        <v>132668</v>
+        <v>163460</v>
       </c>
       <c r="C289" t="s">
         <v>2092</v>
@@ -30437,7 +30437,7 @@
         <v>22696</v>
       </c>
       <c r="B290" t="n">
-        <v>132669</v>
+        <v>163461</v>
       </c>
       <c r="C290" t="s">
         <v>2100</v>
@@ -30506,7 +30506,7 @@
         <v>22696</v>
       </c>
       <c r="B291" t="n">
-        <v>132670</v>
+        <v>163462</v>
       </c>
       <c r="C291" t="s">
         <v>2108</v>
@@ -30632,7 +30632,7 @@
         <v>22696</v>
       </c>
       <c r="B293" t="n">
-        <v>132671</v>
+        <v>163463</v>
       </c>
       <c r="C293" t="s">
         <v>2121</v>
@@ -30703,7 +30703,7 @@
         <v>22696</v>
       </c>
       <c r="B294" t="n">
-        <v>132672</v>
+        <v>163464</v>
       </c>
       <c r="C294" t="s">
         <v>2127</v>
@@ -30845,7 +30845,7 @@
         <v>22696</v>
       </c>
       <c r="B296" t="n">
-        <v>132673</v>
+        <v>163465</v>
       </c>
       <c r="C296" t="s">
         <v>2140</v>
@@ -30916,7 +30916,7 @@
         <v>22696</v>
       </c>
       <c r="B297" t="n">
-        <v>132674</v>
+        <v>163466</v>
       </c>
       <c r="C297" t="s">
         <v>2145</v>
@@ -30987,7 +30987,7 @@
         <v>22696</v>
       </c>
       <c r="B298" t="n">
-        <v>132675</v>
+        <v>163467</v>
       </c>
       <c r="C298" t="s">
         <v>2153</v>
@@ -31054,7 +31054,7 @@
         <v>22696</v>
       </c>
       <c r="B299" t="n">
-        <v>132676</v>
+        <v>163468</v>
       </c>
       <c r="C299" t="s">
         <v>2160</v>
@@ -31125,7 +31125,7 @@
         <v>22696</v>
       </c>
       <c r="B300" t="n">
-        <v>132677</v>
+        <v>163469</v>
       </c>
       <c r="C300" t="s">
         <v>2166</v>
@@ -31196,7 +31196,7 @@
         <v>22696</v>
       </c>
       <c r="B301" t="n">
-        <v>132678</v>
+        <v>163470</v>
       </c>
       <c r="C301" t="s">
         <v>2172</v>
@@ -31409,7 +31409,7 @@
         <v>22696</v>
       </c>
       <c r="B304" t="n">
-        <v>132679</v>
+        <v>163471</v>
       </c>
       <c r="C304" t="s">
         <v>2194</v>
@@ -31484,7 +31484,7 @@
         <v>22696</v>
       </c>
       <c r="B305" t="n">
-        <v>132680</v>
+        <v>163472</v>
       </c>
       <c r="C305" t="s">
         <v>2203</v>
@@ -31545,7 +31545,7 @@
         <v>22696</v>
       </c>
       <c r="B306" t="n">
-        <v>132681</v>
+        <v>163473</v>
       </c>
       <c r="C306" t="s">
         <v>2209</v>
@@ -31606,7 +31606,7 @@
         <v>22696</v>
       </c>
       <c r="B307" t="n">
-        <v>132682</v>
+        <v>163474</v>
       </c>
       <c r="C307" t="s">
         <v>2214</v>
@@ -31748,7 +31748,7 @@
         <v>22696</v>
       </c>
       <c r="B309" t="n">
-        <v>132683</v>
+        <v>132600</v>
       </c>
       <c r="C309" t="s">
         <v>2228</v>
@@ -31819,7 +31819,7 @@
         <v>22696</v>
       </c>
       <c r="B310" t="n">
-        <v>132684</v>
+        <v>163475</v>
       </c>
       <c r="C310" t="s">
         <v>2235</v>
@@ -31890,7 +31890,7 @@
         <v>22696</v>
       </c>
       <c r="B311" t="n">
-        <v>132685</v>
+        <v>163476</v>
       </c>
       <c r="C311" t="s">
         <v>2242</v>
@@ -31961,7 +31961,7 @@
         <v>22696</v>
       </c>
       <c r="B312" t="n">
-        <v>132686</v>
+        <v>163477</v>
       </c>
       <c r="C312" t="s">
         <v>2248</v>
@@ -32018,7 +32018,7 @@
         <v>22696</v>
       </c>
       <c r="B313" t="n">
-        <v>132687</v>
+        <v>163478</v>
       </c>
       <c r="C313" t="s">
         <v>2254</v>
@@ -32089,7 +32089,7 @@
         <v>22696</v>
       </c>
       <c r="B314" t="n">
-        <v>132688</v>
+        <v>163479</v>
       </c>
       <c r="C314" t="s">
         <v>2261</v>
@@ -32146,7 +32146,7 @@
         <v>22696</v>
       </c>
       <c r="B315" t="n">
-        <v>132689</v>
+        <v>163480</v>
       </c>
       <c r="C315" t="s">
         <v>2267</v>
@@ -32479,7 +32479,7 @@
         <v>22696</v>
       </c>
       <c r="B320" t="n">
-        <v>132690</v>
+        <v>163481</v>
       </c>
       <c r="C320" t="s">
         <v>2304</v>
@@ -32625,7 +32625,7 @@
         <v>22696</v>
       </c>
       <c r="B322" t="n">
-        <v>132691</v>
+        <v>163482</v>
       </c>
       <c r="C322" t="s">
         <v>2320</v>
@@ -32769,7 +32769,7 @@
         <v>22696</v>
       </c>
       <c r="B324" t="n">
-        <v>132692</v>
+        <v>163483</v>
       </c>
       <c r="C324" t="s">
         <v>2335</v>
@@ -32911,7 +32911,7 @@
         <v>22696</v>
       </c>
       <c r="B326" t="n">
-        <v>132693</v>
+        <v>163484</v>
       </c>
       <c r="C326" t="s">
         <v>2347</v>
@@ -32972,7 +32972,7 @@
         <v>22696</v>
       </c>
       <c r="B327" t="n">
-        <v>132694</v>
+        <v>163485</v>
       </c>
       <c r="C327" t="s">
         <v>2353</v>
@@ -33122,7 +33122,7 @@
         <v>22696</v>
       </c>
       <c r="B329" t="n">
-        <v>132695</v>
+        <v>163486</v>
       </c>
       <c r="C329" t="s">
         <v>2368</v>
@@ -33193,7 +33193,7 @@
         <v>22696</v>
       </c>
       <c r="B330" t="n">
-        <v>132696</v>
+        <v>163487</v>
       </c>
       <c r="C330" t="s">
         <v>2375</v>
@@ -33315,7 +33315,7 @@
         <v>22696</v>
       </c>
       <c r="B332" t="n">
-        <v>132697</v>
+        <v>163488</v>
       </c>
       <c r="C332" t="s">
         <v>2387</v>
@@ -33386,7 +33386,7 @@
         <v>22696</v>
       </c>
       <c r="B333" t="n">
-        <v>132698</v>
+        <v>163489</v>
       </c>
       <c r="C333" t="s">
         <v>2394</v>
@@ -33453,7 +33453,7 @@
         <v>22696</v>
       </c>
       <c r="B334" t="n">
-        <v>132699</v>
+        <v>163490</v>
       </c>
       <c r="C334" t="s">
         <v>2401</v>
@@ -33514,7 +33514,7 @@
         <v>22696</v>
       </c>
       <c r="B335" t="n">
-        <v>132700</v>
+        <v>163491</v>
       </c>
       <c r="C335" t="s">
         <v>2408</v>
@@ -33585,7 +33585,7 @@
         <v>22696</v>
       </c>
       <c r="B336" t="n">
-        <v>132701</v>
+        <v>163492</v>
       </c>
       <c r="C336" t="s">
         <v>2414</v>
@@ -33798,7 +33798,7 @@
         <v>22696</v>
       </c>
       <c r="B339" t="n">
-        <v>132702</v>
+        <v>163493</v>
       </c>
       <c r="C339" t="s">
         <v>2433</v>
@@ -33869,7 +33869,7 @@
         <v>22696</v>
       </c>
       <c r="B340" t="n">
-        <v>132703</v>
+        <v>163494</v>
       </c>
       <c r="C340" t="s">
         <v>2439</v>
@@ -33940,7 +33940,7 @@
         <v>22696</v>
       </c>
       <c r="B341" t="n">
-        <v>132704</v>
+        <v>163495</v>
       </c>
       <c r="C341" t="s">
         <v>2446</v>
@@ -34011,7 +34011,7 @@
         <v>22696</v>
       </c>
       <c r="B342" t="n">
-        <v>132705</v>
+        <v>163496</v>
       </c>
       <c r="C342" t="s">
         <v>2454</v>
@@ -34082,7 +34082,7 @@
         <v>22696</v>
       </c>
       <c r="B343" t="n">
-        <v>132706</v>
+        <v>163497</v>
       </c>
       <c r="C343" t="s">
         <v>2460</v>
@@ -34153,7 +34153,7 @@
         <v>22696</v>
       </c>
       <c r="B344" t="n">
-        <v>132707</v>
+        <v>163498</v>
       </c>
       <c r="C344" t="s">
         <v>2467</v>
@@ -34427,7 +34427,7 @@
         <v>22696</v>
       </c>
       <c r="B348" t="n">
-        <v>132708</v>
+        <v>163499</v>
       </c>
       <c r="C348" t="s">
         <v>2494</v>
@@ -34569,7 +34569,7 @@
         <v>22696</v>
       </c>
       <c r="B350" t="n">
-        <v>132709</v>
+        <v>163500</v>
       </c>
       <c r="C350" t="s">
         <v>2506</v>
@@ -34640,7 +34640,7 @@
         <v>22696</v>
       </c>
       <c r="B351" t="n">
-        <v>132710</v>
+        <v>163501</v>
       </c>
       <c r="C351" t="s">
         <v>2514</v>
@@ -34711,7 +34711,7 @@
         <v>22696</v>
       </c>
       <c r="B352" t="n">
-        <v>132711</v>
+        <v>163502</v>
       </c>
       <c r="C352" t="s">
         <v>2520</v>
@@ -34782,7 +34782,7 @@
         <v>22696</v>
       </c>
       <c r="B353" t="n">
-        <v>132712</v>
+        <v>163503</v>
       </c>
       <c r="C353" t="s">
         <v>2526</v>
@@ -34853,7 +34853,7 @@
         <v>22696</v>
       </c>
       <c r="B354" t="n">
-        <v>132713</v>
+        <v>163504</v>
       </c>
       <c r="C354" t="s">
         <v>2532</v>
@@ -34924,7 +34924,7 @@
         <v>22696</v>
       </c>
       <c r="B355" t="n">
-        <v>132714</v>
+        <v>163505</v>
       </c>
       <c r="C355" t="s">
         <v>2539</v>
@@ -34995,7 +34995,7 @@
         <v>22696</v>
       </c>
       <c r="B356" t="n">
-        <v>132715</v>
+        <v>163506</v>
       </c>
       <c r="C356" t="s">
         <v>2545</v>
@@ -35056,7 +35056,7 @@
         <v>22696</v>
       </c>
       <c r="B357" t="n">
-        <v>132716</v>
+        <v>163507</v>
       </c>
       <c r="C357" t="s">
         <v>2552</v>
@@ -35127,7 +35127,7 @@
         <v>22696</v>
       </c>
       <c r="B358" t="n">
-        <v>132717</v>
+        <v>163508</v>
       </c>
       <c r="C358" t="s">
         <v>2559</v>
@@ -35198,7 +35198,7 @@
         <v>22696</v>
       </c>
       <c r="B359" t="n">
-        <v>132718</v>
+        <v>163509</v>
       </c>
       <c r="C359" t="s">
         <v>2565</v>
@@ -35269,7 +35269,7 @@
         <v>22696</v>
       </c>
       <c r="B360" t="n">
-        <v>132719</v>
+        <v>163510</v>
       </c>
       <c r="C360" t="s">
         <v>2571</v>
@@ -35482,7 +35482,7 @@
         <v>22696</v>
       </c>
       <c r="B363" t="n">
-        <v>132720</v>
+        <v>163511</v>
       </c>
       <c r="C363" t="s">
         <v>2589</v>
@@ -35553,7 +35553,7 @@
         <v>22696</v>
       </c>
       <c r="B364" t="n">
-        <v>132721</v>
+        <v>163512</v>
       </c>
       <c r="C364" t="s">
         <v>2595</v>
@@ -35614,7 +35614,7 @@
         <v>22696</v>
       </c>
       <c r="B365" t="n">
-        <v>132722</v>
+        <v>163513</v>
       </c>
       <c r="C365" t="s">
         <v>2601</v>
@@ -35825,7 +35825,7 @@
         <v>22696</v>
       </c>
       <c r="B368" t="n">
-        <v>132723</v>
+        <v>163514</v>
       </c>
       <c r="C368" t="s">
         <v>2622</v>
@@ -35892,7 +35892,7 @@
         <v>22696</v>
       </c>
       <c r="B369" t="n">
-        <v>132724</v>
+        <v>163515</v>
       </c>
       <c r="C369" t="s">
         <v>2628</v>
@@ -35963,7 +35963,7 @@
         <v>22696</v>
       </c>
       <c r="B370" t="n">
-        <v>132725</v>
+        <v>163516</v>
       </c>
       <c r="C370" t="s">
         <v>2634</v>
@@ -36034,7 +36034,7 @@
         <v>22696</v>
       </c>
       <c r="B371" t="n">
-        <v>132726</v>
+        <v>163517</v>
       </c>
       <c r="C371" t="s">
         <v>2640</v>
@@ -36095,7 +36095,7 @@
         <v>22696</v>
       </c>
       <c r="B372" t="n">
-        <v>132727</v>
+        <v>163518</v>
       </c>
       <c r="C372" t="s">
         <v>2647</v>
@@ -36166,7 +36166,7 @@
         <v>22696</v>
       </c>
       <c r="B373" t="n">
-        <v>132682</v>
+        <v>132600</v>
       </c>
       <c r="C373" t="s">
         <v>2228</v>
@@ -36237,7 +36237,7 @@
         <v>22696</v>
       </c>
       <c r="B374" t="n">
-        <v>132728</v>
+        <v>163519</v>
       </c>
       <c r="C374" t="s">
         <v>2661</v>
@@ -36308,7 +36308,7 @@
         <v>22696</v>
       </c>
       <c r="B375" t="n">
-        <v>132729</v>
+        <v>163520</v>
       </c>
       <c r="C375" t="s">
         <v>2669</v>
@@ -36379,7 +36379,7 @@
         <v>22696</v>
       </c>
       <c r="B376" t="n">
-        <v>132730</v>
+        <v>163521</v>
       </c>
       <c r="C376" t="s">
         <v>2676</v>
@@ -36450,7 +36450,7 @@
         <v>22696</v>
       </c>
       <c r="B377" t="n">
-        <v>132731</v>
+        <v>163522</v>
       </c>
       <c r="C377" t="s">
         <v>2682</v>
@@ -36521,7 +36521,7 @@
         <v>22696</v>
       </c>
       <c r="B378" t="n">
-        <v>132732</v>
+        <v>163523</v>
       </c>
       <c r="C378" t="s">
         <v>2688</v>
@@ -36592,7 +36592,7 @@
         <v>22696</v>
       </c>
       <c r="B379" t="n">
-        <v>132733</v>
+        <v>163524</v>
       </c>
       <c r="C379" t="s">
         <v>2695</v>
@@ -36663,7 +36663,7 @@
         <v>22696</v>
       </c>
       <c r="B380" t="n">
-        <v>132734</v>
+        <v>163525</v>
       </c>
       <c r="C380" t="s">
         <v>2702</v>
@@ -36732,7 +36732,7 @@
         <v>22696</v>
       </c>
       <c r="B381" t="n">
-        <v>132735</v>
+        <v>163526</v>
       </c>
       <c r="C381" t="s">
         <v>2708</v>
@@ -36866,7 +36866,7 @@
         <v>22696</v>
       </c>
       <c r="B383" t="n">
-        <v>132736</v>
+        <v>163527</v>
       </c>
       <c r="C383" t="s">
         <v>2720</v>
@@ -36935,7 +36935,7 @@
         <v>22696</v>
       </c>
       <c r="B384" t="n">
-        <v>132737</v>
+        <v>163528</v>
       </c>
       <c r="C384" t="s">
         <v>2727</v>
@@ -37006,7 +37006,7 @@
         <v>22696</v>
       </c>
       <c r="B385" t="n">
-        <v>132738</v>
+        <v>163529</v>
       </c>
       <c r="C385" t="s">
         <v>2734</v>
@@ -37077,7 +37077,7 @@
         <v>22696</v>
       </c>
       <c r="B386" t="n">
-        <v>132739</v>
+        <v>163530</v>
       </c>
       <c r="C386" t="s">
         <v>2739</v>
@@ -37215,7 +37215,7 @@
         <v>22696</v>
       </c>
       <c r="B388" t="n">
-        <v>132740</v>
+        <v>163531</v>
       </c>
       <c r="C388" t="s">
         <v>2752</v>
@@ -37276,7 +37276,7 @@
         <v>22696</v>
       </c>
       <c r="B389" t="n">
-        <v>132741</v>
+        <v>163532</v>
       </c>
       <c r="C389" t="s">
         <v>2759</v>
@@ -37631,7 +37631,7 @@
         <v>22696</v>
       </c>
       <c r="B394" t="n">
-        <v>132742</v>
+        <v>163533</v>
       </c>
       <c r="C394" t="s">
         <v>2791</v>
@@ -37702,7 +37702,7 @@
         <v>22696</v>
       </c>
       <c r="B395" t="n">
-        <v>132743</v>
+        <v>163534</v>
       </c>
       <c r="C395" t="s">
         <v>2797</v>
@@ -37769,7 +37769,7 @@
         <v>22696</v>
       </c>
       <c r="B396" t="n">
-        <v>132744</v>
+        <v>163535</v>
       </c>
       <c r="C396" t="s">
         <v>2803</v>
@@ -37840,7 +37840,7 @@
         <v>22696</v>
       </c>
       <c r="B397" t="n">
-        <v>132745</v>
+        <v>163536</v>
       </c>
       <c r="C397" t="s">
         <v>2809</v>
@@ -37986,7 +37986,7 @@
         <v>22696</v>
       </c>
       <c r="B399" t="n">
-        <v>132746</v>
+        <v>163537</v>
       </c>
       <c r="C399" t="s">
         <v>2823</v>
@@ -38047,7 +38047,7 @@
         <v>22696</v>
       </c>
       <c r="B400" t="n">
-        <v>132747</v>
+        <v>163538</v>
       </c>
       <c r="C400" t="s">
         <v>2829</v>
@@ -38118,7 +38118,7 @@
         <v>22696</v>
       </c>
       <c r="B401" t="n">
-        <v>132748</v>
+        <v>163539</v>
       </c>
       <c r="C401" t="s">
         <v>2836</v>
@@ -38189,7 +38189,7 @@
         <v>22696</v>
       </c>
       <c r="B402" t="n">
-        <v>132749</v>
+        <v>163540</v>
       </c>
       <c r="C402" t="s">
         <v>2843</v>
@@ -38256,7 +38256,7 @@
         <v>22696</v>
       </c>
       <c r="B403" t="n">
-        <v>132750</v>
+        <v>163541</v>
       </c>
       <c r="C403" t="s">
         <v>2850</v>
@@ -38327,7 +38327,7 @@
         <v>22696</v>
       </c>
       <c r="B404" t="n">
-        <v>132751</v>
+        <v>163542</v>
       </c>
       <c r="C404" t="s">
         <v>2856</v>
@@ -38473,7 +38473,7 @@
         <v>22696</v>
       </c>
       <c r="B406" t="n">
-        <v>132752</v>
+        <v>163543</v>
       </c>
       <c r="C406" t="s">
         <v>2873</v>
@@ -38534,7 +38534,7 @@
         <v>22696</v>
       </c>
       <c r="B407" t="n">
-        <v>132753</v>
+        <v>163544</v>
       </c>
       <c r="C407" t="s">
         <v>2880</v>
@@ -38605,7 +38605,7 @@
         <v>22696</v>
       </c>
       <c r="B408" t="n">
-        <v>132754</v>
+        <v>163545</v>
       </c>
       <c r="C408" t="s">
         <v>2888</v>
@@ -38670,7 +38670,7 @@
         <v>22696</v>
       </c>
       <c r="B409" t="n">
-        <v>132755</v>
+        <v>163546</v>
       </c>
       <c r="C409" t="s">
         <v>2897</v>
@@ -38741,7 +38741,7 @@
         <v>22696</v>
       </c>
       <c r="B410" t="n">
-        <v>132756</v>
+        <v>163547</v>
       </c>
       <c r="C410" t="s">
         <v>2904</v>
@@ -38812,7 +38812,7 @@
         <v>22696</v>
       </c>
       <c r="B411" t="n">
-        <v>132757</v>
+        <v>163548</v>
       </c>
       <c r="C411" t="s">
         <v>2911</v>
@@ -38958,7 +38958,7 @@
         <v>22696</v>
       </c>
       <c r="B413" t="n">
-        <v>132758</v>
+        <v>163549</v>
       </c>
       <c r="C413" t="s">
         <v>2926</v>
@@ -39029,7 +39029,7 @@
         <v>22696</v>
       </c>
       <c r="B414" t="n">
-        <v>132759</v>
+        <v>163550</v>
       </c>
       <c r="C414" t="s">
         <v>2932</v>
@@ -39100,7 +39100,7 @@
         <v>22696</v>
       </c>
       <c r="B415" t="n">
-        <v>132760</v>
+        <v>163551</v>
       </c>
       <c r="C415" t="s">
         <v>2939</v>
@@ -39171,7 +39171,7 @@
         <v>22696</v>
       </c>
       <c r="B416" t="n">
-        <v>132761</v>
+        <v>163552</v>
       </c>
       <c r="C416" t="s">
         <v>2946</v>
@@ -39242,7 +39242,7 @@
         <v>22696</v>
       </c>
       <c r="B417" t="n">
-        <v>132762</v>
+        <v>163553</v>
       </c>
       <c r="C417" t="s">
         <v>2953</v>
@@ -39313,7 +39313,7 @@
         <v>22696</v>
       </c>
       <c r="B418" t="n">
-        <v>132763</v>
+        <v>163554</v>
       </c>
       <c r="C418" t="s">
         <v>2959</v>
@@ -39384,7 +39384,7 @@
         <v>22696</v>
       </c>
       <c r="B419" t="n">
-        <v>132764</v>
+        <v>163555</v>
       </c>
       <c r="C419" t="s">
         <v>2966</v>
@@ -39526,7 +39526,7 @@
         <v>22696</v>
       </c>
       <c r="B421" t="n">
-        <v>132765</v>
+        <v>163556</v>
       </c>
       <c r="C421" t="s">
         <v>2978</v>
@@ -39597,7 +39597,7 @@
         <v>22696</v>
       </c>
       <c r="B422" t="n">
-        <v>132766</v>
+        <v>163557</v>
       </c>
       <c r="C422" t="s">
         <v>2984</v>
@@ -39672,7 +39672,7 @@
         <v>22696</v>
       </c>
       <c r="B423" t="n">
-        <v>132767</v>
+        <v>163558</v>
       </c>
       <c r="C423" t="s">
         <v>2993</v>
@@ -39743,7 +39743,7 @@
         <v>22696</v>
       </c>
       <c r="B424" t="n">
-        <v>132768</v>
+        <v>163559</v>
       </c>
       <c r="C424" t="s">
         <v>2999</v>
@@ -39814,7 +39814,7 @@
         <v>22696</v>
       </c>
       <c r="B425" t="n">
-        <v>132769</v>
+        <v>163560</v>
       </c>
       <c r="C425" t="s">
         <v>3005</v>
@@ -39883,7 +39883,7 @@
         <v>22696</v>
       </c>
       <c r="B426" t="n">
-        <v>132770</v>
+        <v>163561</v>
       </c>
       <c r="C426" t="s">
         <v>3011</v>
@@ -39954,7 +39954,7 @@
         <v>22696</v>
       </c>
       <c r="B427" t="n">
-        <v>132771</v>
+        <v>163562</v>
       </c>
       <c r="C427" t="s">
         <v>3018</v>
@@ -40025,7 +40025,7 @@
         <v>22696</v>
       </c>
       <c r="B428" t="n">
-        <v>132772</v>
+        <v>163563</v>
       </c>
       <c r="C428" t="s">
         <v>3025</v>
@@ -40096,7 +40096,7 @@
         <v>22696</v>
       </c>
       <c r="B429" t="n">
-        <v>132773</v>
+        <v>163564</v>
       </c>
       <c r="C429" t="s">
         <v>3032</v>
@@ -40167,7 +40167,7 @@
         <v>22696</v>
       </c>
       <c r="B430" t="n">
-        <v>132774</v>
+        <v>163565</v>
       </c>
       <c r="C430" t="s">
         <v>3038</v>
@@ -40228,7 +40228,7 @@
         <v>22696</v>
       </c>
       <c r="B431" t="n">
-        <v>132775</v>
+        <v>163566</v>
       </c>
       <c r="C431" t="s">
         <v>3045</v>
@@ -40299,7 +40299,7 @@
         <v>22696</v>
       </c>
       <c r="B432" t="n">
-        <v>132776</v>
+        <v>163567</v>
       </c>
       <c r="C432" t="s">
         <v>3051</v>
@@ -40370,7 +40370,7 @@
         <v>22696</v>
       </c>
       <c r="B433" t="n">
-        <v>132777</v>
+        <v>163568</v>
       </c>
       <c r="C433" t="s">
         <v>3057</v>
@@ -40512,7 +40512,7 @@
         <v>22696</v>
       </c>
       <c r="B435" t="n">
-        <v>132778</v>
+        <v>163569</v>
       </c>
       <c r="C435" t="s">
         <v>3070</v>
@@ -40583,7 +40583,7 @@
         <v>22696</v>
       </c>
       <c r="B436" t="n">
-        <v>132779</v>
+        <v>163570</v>
       </c>
       <c r="C436" t="s">
         <v>3078</v>
@@ -40654,7 +40654,7 @@
         <v>22696</v>
       </c>
       <c r="B437" t="n">
-        <v>132780</v>
+        <v>163571</v>
       </c>
       <c r="C437" t="s">
         <v>3085</v>
@@ -40721,7 +40721,7 @@
         <v>22696</v>
       </c>
       <c r="B438" t="n">
-        <v>132781</v>
+        <v>163572</v>
       </c>
       <c r="C438" t="s">
         <v>3092</v>
@@ -40859,7 +40859,7 @@
         <v>22696</v>
       </c>
       <c r="B440" t="n">
-        <v>132782</v>
+        <v>163573</v>
       </c>
       <c r="C440" t="s">
         <v>3105</v>
@@ -40930,7 +40930,7 @@
         <v>22696</v>
       </c>
       <c r="B441" t="n">
-        <v>132783</v>
+        <v>163574</v>
       </c>
       <c r="C441" t="s">
         <v>3111</v>
@@ -40997,7 +40997,7 @@
         <v>22696</v>
       </c>
       <c r="B442" t="n">
-        <v>132784</v>
+        <v>163575</v>
       </c>
       <c r="C442" t="s">
         <v>3118</v>
@@ -41068,7 +41068,7 @@
         <v>22696</v>
       </c>
       <c r="B443" t="n">
-        <v>132785</v>
+        <v>163576</v>
       </c>
       <c r="C443" t="s">
         <v>3124</v>
@@ -41139,7 +41139,7 @@
         <v>22696</v>
       </c>
       <c r="B444" t="n">
-        <v>132786</v>
+        <v>163577</v>
       </c>
       <c r="C444" t="s">
         <v>3131</v>
@@ -41210,7 +41210,7 @@
         <v>22696</v>
       </c>
       <c r="B445" t="n">
-        <v>132787</v>
+        <v>163578</v>
       </c>
       <c r="C445" t="s">
         <v>3138</v>
@@ -41281,7 +41281,7 @@
         <v>22696</v>
       </c>
       <c r="B446" t="n">
-        <v>132788</v>
+        <v>163579</v>
       </c>
       <c r="C446" t="s">
         <v>3143</v>
@@ -41423,7 +41423,7 @@
         <v>22696</v>
       </c>
       <c r="B448" t="n">
-        <v>132789</v>
+        <v>163580</v>
       </c>
       <c r="C448" t="s">
         <v>3155</v>
@@ -41484,7 +41484,7 @@
         <v>22696</v>
       </c>
       <c r="B449" t="n">
-        <v>132790</v>
+        <v>163581</v>
       </c>
       <c r="C449" t="s">
         <v>3161</v>
@@ -41555,7 +41555,7 @@
         <v>22696</v>
       </c>
       <c r="B450" t="n">
-        <v>132791</v>
+        <v>163582</v>
       </c>
       <c r="C450" t="s">
         <v>3167</v>
@@ -41626,7 +41626,7 @@
         <v>22696</v>
       </c>
       <c r="B451" t="n">
-        <v>132792</v>
+        <v>163583</v>
       </c>
       <c r="C451" t="s">
         <v>3173</v>
@@ -41697,7 +41697,7 @@
         <v>22696</v>
       </c>
       <c r="B452" t="n">
-        <v>132793</v>
+        <v>163584</v>
       </c>
       <c r="C452" t="s">
         <v>3181</v>
@@ -41835,7 +41835,7 @@
         <v>22696</v>
       </c>
       <c r="B454" t="n">
-        <v>132794</v>
+        <v>163585</v>
       </c>
       <c r="C454" t="s">
         <v>3194</v>
@@ -41902,7 +41902,7 @@
         <v>22696</v>
       </c>
       <c r="B455" t="n">
-        <v>132795</v>
+        <v>163586</v>
       </c>
       <c r="C455" t="s">
         <v>3201</v>
@@ -41969,7 +41969,7 @@
         <v>22696</v>
       </c>
       <c r="B456" t="n">
-        <v>132796</v>
+        <v>163587</v>
       </c>
       <c r="C456" t="s">
         <v>3208</v>
@@ -42036,7 +42036,7 @@
         <v>22696</v>
       </c>
       <c r="B457" t="n">
-        <v>132797</v>
+        <v>163588</v>
       </c>
       <c r="C457" t="s">
         <v>3214</v>
@@ -42103,7 +42103,7 @@
         <v>22696</v>
       </c>
       <c r="B458" t="n">
-        <v>132798</v>
+        <v>163589</v>
       </c>
       <c r="C458" t="s">
         <v>3221</v>
@@ -42170,7 +42170,7 @@
         <v>22696</v>
       </c>
       <c r="B459" t="n">
-        <v>132799</v>
+        <v>163590</v>
       </c>
       <c r="C459" t="s">
         <v>3228</v>
@@ -42237,7 +42237,7 @@
         <v>22696</v>
       </c>
       <c r="B460" t="n">
-        <v>132800</v>
+        <v>163591</v>
       </c>
       <c r="C460" t="s">
         <v>3235</v>
@@ -42298,7 +42298,7 @@
         <v>22696</v>
       </c>
       <c r="B461" t="n">
-        <v>132801</v>
+        <v>163592</v>
       </c>
       <c r="C461" t="s">
         <v>3242</v>
@@ -42365,7 +42365,7 @@
         <v>22696</v>
       </c>
       <c r="B462" t="n">
-        <v>132802</v>
+        <v>163593</v>
       </c>
       <c r="C462" t="s">
         <v>3249</v>
@@ -42432,7 +42432,7 @@
         <v>22696</v>
       </c>
       <c r="B463" t="n">
-        <v>132803</v>
+        <v>163594</v>
       </c>
       <c r="C463" t="s">
         <v>3256</v>
@@ -42499,7 +42499,7 @@
         <v>22696</v>
       </c>
       <c r="B464" t="n">
-        <v>132804</v>
+        <v>163595</v>
       </c>
       <c r="C464" t="s">
         <v>3263</v>
@@ -42574,7 +42574,7 @@
         <v>22696</v>
       </c>
       <c r="B465" t="n">
-        <v>132805</v>
+        <v>163596</v>
       </c>
       <c r="C465" t="s">
         <v>3272</v>
@@ -42645,7 +42645,7 @@
         <v>22696</v>
       </c>
       <c r="B466" t="n">
-        <v>132806</v>
+        <v>163597</v>
       </c>
       <c r="C466" t="s">
         <v>3279</v>
@@ -42716,7 +42716,7 @@
         <v>22696</v>
       </c>
       <c r="B467" t="n">
-        <v>132807</v>
+        <v>163598</v>
       </c>
       <c r="C467" t="s">
         <v>3287</v>
@@ -42787,7 +42787,7 @@
         <v>22696</v>
       </c>
       <c r="B468" t="n">
-        <v>132808</v>
+        <v>163599</v>
       </c>
       <c r="C468" t="s">
         <v>3294</v>
@@ -42858,7 +42858,7 @@
         <v>22696</v>
       </c>
       <c r="B469" t="n">
-        <v>132809</v>
+        <v>163600</v>
       </c>
       <c r="C469" t="s">
         <v>3301</v>
@@ -43000,7 +43000,7 @@
         <v>22696</v>
       </c>
       <c r="B471" t="n">
-        <v>132810</v>
+        <v>163601</v>
       </c>
       <c r="C471" t="s">
         <v>3315</v>
@@ -43071,7 +43071,7 @@
         <v>22696</v>
       </c>
       <c r="B472" t="n">
-        <v>132811</v>
+        <v>163602</v>
       </c>
       <c r="C472" t="s">
         <v>3321</v>
@@ -43142,7 +43142,7 @@
         <v>22696</v>
       </c>
       <c r="B473" t="n">
-        <v>132812</v>
+        <v>163603</v>
       </c>
       <c r="C473" t="s">
         <v>3329</v>
@@ -43213,7 +43213,7 @@
         <v>22696</v>
       </c>
       <c r="B474" t="n">
-        <v>132813</v>
+        <v>163604</v>
       </c>
       <c r="C474" t="s">
         <v>3336</v>
@@ -43284,7 +43284,7 @@
         <v>22696</v>
       </c>
       <c r="B475" t="n">
-        <v>132814</v>
+        <v>163605</v>
       </c>
       <c r="C475" t="s">
         <v>3344</v>
@@ -43355,7 +43355,7 @@
         <v>22696</v>
       </c>
       <c r="B476" t="n">
-        <v>132815</v>
+        <v>163606</v>
       </c>
       <c r="C476" t="s">
         <v>3351</v>
@@ -43426,7 +43426,7 @@
         <v>22696</v>
       </c>
       <c r="B477" t="n">
-        <v>132816</v>
+        <v>163607</v>
       </c>
       <c r="C477" t="s">
         <v>3359</v>
@@ -43497,7 +43497,7 @@
         <v>22696</v>
       </c>
       <c r="B478" t="n">
-        <v>132817</v>
+        <v>163608</v>
       </c>
       <c r="C478" t="s">
         <v>3365</v>
@@ -43568,7 +43568,7 @@
         <v>22696</v>
       </c>
       <c r="B479" t="n">
-        <v>132818</v>
+        <v>163609</v>
       </c>
       <c r="C479" t="s">
         <v>3372</v>
@@ -43639,7 +43639,7 @@
         <v>22696</v>
       </c>
       <c r="B480" t="n">
-        <v>132819</v>
+        <v>163610</v>
       </c>
       <c r="C480" t="s">
         <v>3380</v>
@@ -43789,7 +43789,7 @@
         <v>22696</v>
       </c>
       <c r="B482" t="n">
-        <v>132820</v>
+        <v>163611</v>
       </c>
       <c r="C482" t="s">
         <v>3396</v>
@@ -43864,7 +43864,7 @@
         <v>22696</v>
       </c>
       <c r="B483" t="n">
-        <v>132821</v>
+        <v>163612</v>
       </c>
       <c r="C483" t="s">
         <v>3403</v>
@@ -43935,7 +43935,7 @@
         <v>22696</v>
       </c>
       <c r="B484" t="n">
-        <v>132822</v>
+        <v>163613</v>
       </c>
       <c r="C484" t="s">
         <v>3410</v>
@@ -44010,7 +44010,7 @@
         <v>22696</v>
       </c>
       <c r="B485" t="n">
-        <v>132823</v>
+        <v>163614</v>
       </c>
       <c r="C485" t="s">
         <v>3417</v>
@@ -44085,7 +44085,7 @@
         <v>22696</v>
       </c>
       <c r="B486" t="n">
-        <v>132824</v>
+        <v>163615</v>
       </c>
       <c r="C486" t="s">
         <v>3424</v>
@@ -44160,7 +44160,7 @@
         <v>22696</v>
       </c>
       <c r="B487" t="n">
-        <v>132483</v>
+        <v>132572</v>
       </c>
       <c r="C487" t="s">
         <v>111</v>
@@ -44296,7 +44296,7 @@
         <v>22696</v>
       </c>
       <c r="B489" t="n">
-        <v>132825</v>
+        <v>163616</v>
       </c>
       <c r="C489" t="s">
         <v>3446</v>
@@ -44371,7 +44371,7 @@
         <v>22696</v>
       </c>
       <c r="B490" t="n">
-        <v>132826</v>
+        <v>163617</v>
       </c>
       <c r="C490" t="s">
         <v>3453</v>
@@ -44446,7 +44446,7 @@
         <v>22696</v>
       </c>
       <c r="B491" t="n">
-        <v>132827</v>
+        <v>163618</v>
       </c>
       <c r="C491" t="s">
         <v>3460</v>
@@ -44521,7 +44521,7 @@
         <v>22696</v>
       </c>
       <c r="B492" t="n">
-        <v>132828</v>
+        <v>163619</v>
       </c>
       <c r="C492" t="s">
         <v>3468</v>
@@ -44578,7 +44578,7 @@
         <v>22696</v>
       </c>
       <c r="B493" t="n">
-        <v>132829</v>
+        <v>163620</v>
       </c>
       <c r="C493" t="s">
         <v>3475</v>
@@ -44635,7 +44635,7 @@
         <v>22696</v>
       </c>
       <c r="B494" t="n">
-        <v>132830</v>
+        <v>163621</v>
       </c>
       <c r="C494" t="s">
         <v>3481</v>
@@ -44702,7 +44702,7 @@
         <v>22696</v>
       </c>
       <c r="B495" t="n">
-        <v>132831</v>
+        <v>163622</v>
       </c>
       <c r="C495" t="s">
         <v>3487</v>
@@ -44769,7 +44769,7 @@
         <v>22696</v>
       </c>
       <c r="B496" t="n">
-        <v>132832</v>
+        <v>163623</v>
       </c>
       <c r="C496" t="s">
         <v>3494</v>
@@ -44840,7 +44840,7 @@
         <v>22696</v>
       </c>
       <c r="B497" t="n">
-        <v>132833</v>
+        <v>163624</v>
       </c>
       <c r="C497" t="s">
         <v>3501</v>
@@ -44911,7 +44911,7 @@
         <v>22696</v>
       </c>
       <c r="B498" t="n">
-        <v>132834</v>
+        <v>163625</v>
       </c>
       <c r="C498" t="s">
         <v>3508</v>
@@ -44968,7 +44968,7 @@
         <v>22696</v>
       </c>
       <c r="B499" t="n">
-        <v>132835</v>
+        <v>163626</v>
       </c>
       <c r="C499" t="s">
         <v>3515</v>
@@ -45025,7 +45025,7 @@
         <v>22696</v>
       </c>
       <c r="B500" t="n">
-        <v>132836</v>
+        <v>163627</v>
       </c>
       <c r="C500" t="s">
         <v>3522</v>
@@ -45096,7 +45096,7 @@
         <v>22696</v>
       </c>
       <c r="B501" t="n">
-        <v>132837</v>
+        <v>163628</v>
       </c>
       <c r="C501" t="s">
         <v>3529</v>
@@ -45165,7 +45165,7 @@
         <v>22696</v>
       </c>
       <c r="B502" t="n">
-        <v>132838</v>
+        <v>163629</v>
       </c>
       <c r="C502" t="s">
         <v>3535</v>
@@ -45415,7 +45415,7 @@
         <v>22696</v>
       </c>
       <c r="B506" t="n">
-        <v>132839</v>
+        <v>163630</v>
       </c>
       <c r="C506" t="s">
         <v>3561</v>
@@ -45480,7 +45480,7 @@
         <v>22696</v>
       </c>
       <c r="B507" t="n">
-        <v>132840</v>
+        <v>163631</v>
       </c>
       <c r="C507" t="s">
         <v>3568</v>
@@ -45549,7 +45549,7 @@
         <v>22696</v>
       </c>
       <c r="B508" t="n">
-        <v>132841</v>
+        <v>163632</v>
       </c>
       <c r="C508" t="s">
         <v>3576</v>
@@ -45614,7 +45614,7 @@
         <v>22696</v>
       </c>
       <c r="B509" t="n">
-        <v>132842</v>
+        <v>163633</v>
       </c>
       <c r="C509" t="s">
         <v>3582</v>
